--- a/excel/202310.xlsx
+++ b/excel/202310.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH71"/>
+  <dimension ref="A1:AI80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -448,160 +448,165 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>部門</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>10/1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>10/2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>10/3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>10/4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>10/5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>10/6</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>10/7</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>10/8</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>10/9</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>10/10</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>10/11</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>10/12</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>10/13</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>10/14</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>10/15</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>10/16</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>10/17</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>10/18</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>10/19</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>10/20</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>10/21</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>10/22</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>10/23</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>10/24</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>10/25</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>10/26</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>10/27</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>10/28</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>10/29</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>10/30</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>10/31</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>總計</t>
         </is>
@@ -610,17 +615,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>魏宏霖</t>
+          <t>陳智倫</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henry Wei</t>
+          <t>Frank Chen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA3</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -635,12 +640,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -675,17 +680,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -705,7 +710,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -774,6 +779,11 @@
         </is>
       </c>
       <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>420</t>
         </is>
@@ -782,17 +792,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>李侑萱</t>
+          <t>邱昉</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yolanda Lee</t>
+          <t>Yvonne Chiu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -807,7 +817,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -857,7 +867,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -892,7 +902,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -947,24 +957,29 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>葉雲旭</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Johnny Yeh</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -979,12 +994,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -1019,17 +1034,17 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1044,7 +1059,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -1059,12 +1074,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1119,24 +1134,29 @@
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>980</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>潘梅寧</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amy Pan</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1151,12 +1171,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -1166,7 +1186,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1236,7 +1256,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1291,24 +1311,29 @@
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>700</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>陳聿恩</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Kitty Chen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1318,7 +1343,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1328,17 +1353,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1368,7 +1393,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1463,24 +1488,29 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>傅子峰</t>
+          <t>吳國彰</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gibson Fu</t>
+          <t>Justin Wu</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1490,27 +1520,27 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1535,17 +1565,17 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1555,12 +1585,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1570,17 +1600,17 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1635,24 +1665,29 @@
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>賴韋任</t>
+          <t>葉美妙</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Leo Lai</t>
+          <t>Karen Yeh</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1707,17 +1742,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1732,27 +1767,27 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -1762,7 +1797,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1807,24 +1842,29 @@
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>川中郁果</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kawanaka Ikuka</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1834,17 +1874,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1854,7 +1894,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1874,7 +1914,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1884,12 +1924,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1904,22 +1944,22 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1979,29 +2019,34 @@
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>陳聿恩</t>
+          <t>朱傑</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kitty Chen</t>
+          <t>Jason Chu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2026,7 +2071,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2046,7 +2091,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -2056,12 +2101,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -2081,22 +2126,22 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2151,44 +2196,49 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>吳國彰</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Justin Wu</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -2198,7 +2248,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2218,7 +2268,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -2233,7 +2283,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2243,32 +2293,32 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>300</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>300</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>300</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>300</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>500</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2323,24 +2373,29 @@
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>2400</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>葉美妙</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Karen Yeh</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2350,17 +2405,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -2370,7 +2425,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -2390,7 +2445,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -2405,7 +2460,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -2415,27 +2470,27 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -2495,24 +2550,29 @@
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>980</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>劉學仁</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Jason Liu</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2532,7 +2592,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2542,7 +2602,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2562,27 +2622,27 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -2612,7 +2672,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2667,29 +2727,34 @@
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>4980</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>謝芳琴</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Chin Hsieh</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2704,17 +2769,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2734,7 +2799,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2749,7 +2814,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2759,7 +2824,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -2784,7 +2849,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
@@ -2838,6 +2903,11 @@
         </is>
       </c>
       <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
         <is>
           <t>1680</t>
         </is>
@@ -2846,22 +2916,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>朱傑</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Jason Chu</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2881,12 +2951,12 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2906,7 +2976,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2921,7 +2991,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -2931,7 +3001,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -2956,7 +3026,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3011,29 +3081,34 @@
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>魏毓瑩</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Mina Wei</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3048,17 +3123,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3078,7 +3153,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -3093,7 +3168,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3108,7 +3183,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3128,7 +3203,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3183,24 +3258,29 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>凃美君</t>
+          <t>董宇珊</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chun Tu</t>
+          <t>Joanne Tung</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3210,7 +3290,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -3220,7 +3300,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3255,17 +3335,17 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3280,27 +3360,27 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
@@ -3355,29 +3435,34 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>1540</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>劉學仁</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Jason Liu</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3392,7 +3477,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -3402,7 +3487,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3422,7 +3507,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3437,7 +3522,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -3447,7 +3532,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3472,7 +3557,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -3527,29 +3612,34 @@
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>謝芳琴</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Chin Hsieh</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3564,7 +3654,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -3574,7 +3664,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -3594,7 +3684,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -3609,7 +3699,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -3619,7 +3709,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -3644,7 +3734,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3699,29 +3789,34 @@
       </c>
       <c r="AH19" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI19" t="inlineStr">
+        <is>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -3736,17 +3831,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -3766,7 +3861,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3781,7 +3876,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3791,7 +3886,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3816,7 +3911,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -3870,6 +3965,11 @@
         </is>
       </c>
       <c r="AH20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI20" t="inlineStr">
         <is>
           <t>1680</t>
         </is>
@@ -3878,22 +3978,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>魏毓瑩</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mina Wei</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -3908,17 +4008,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -3938,17 +4038,17 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -3963,22 +4063,22 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -3988,7 +4088,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -4042,6 +4142,11 @@
         </is>
       </c>
       <c r="AH21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI21" t="inlineStr">
         <is>
           <t>1260</t>
         </is>
@@ -4060,12 +4165,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4090,7 +4195,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -4110,7 +4215,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -4130,7 +4235,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -4214,6 +4319,11 @@
         </is>
       </c>
       <c r="AH22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI22" t="inlineStr">
         <is>
           <t>1260</t>
         </is>
@@ -4232,7 +4342,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4327,12 +4437,12 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -4386,6 +4496,11 @@
         </is>
       </c>
       <c r="AH23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -4404,12 +4519,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4434,7 +4549,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -4454,7 +4569,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -4469,7 +4584,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4479,7 +4594,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -4504,7 +4619,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -4558,6 +4673,11 @@
         </is>
       </c>
       <c r="AH24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
         <is>
           <t>1820</t>
         </is>
@@ -4576,12 +4696,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4606,7 +4726,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -4671,12 +4791,12 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -4730,6 +4850,11 @@
         </is>
       </c>
       <c r="AH25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
         <is>
           <t>840</t>
         </is>
@@ -4748,12 +4873,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -4778,7 +4903,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4798,7 +4923,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4813,7 +4938,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -4823,7 +4948,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -4848,7 +4973,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -4902,6 +5027,11 @@
         </is>
       </c>
       <c r="AH26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
         <is>
           <t>1820</t>
         </is>
@@ -4920,12 +5050,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -4940,17 +5070,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4970,7 +5100,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -4985,7 +5115,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -4995,7 +5125,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -5010,7 +5140,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -5074,6 +5204,11 @@
         </is>
       </c>
       <c r="AH27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
         <is>
           <t>1400</t>
         </is>
@@ -5082,27 +5217,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>吳東穎</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Richie Wu</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -5112,12 +5247,12 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5142,7 +5277,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5152,27 +5287,27 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -5192,7 +5327,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -5247,24 +5382,29 @@
       </c>
       <c r="AH28" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>4980</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>戴新華</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dixie Tai</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5274,7 +5414,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5344,7 +5484,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -5418,6 +5558,11 @@
         </is>
       </c>
       <c r="AH29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
         <is>
           <t>140</t>
         </is>
@@ -5426,22 +5571,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5451,7 +5596,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5466,7 +5611,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -5491,17 +5636,17 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -5511,12 +5656,12 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -5536,7 +5681,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -5591,39 +5736,44 @@
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>董宇珊</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Joanne Tung</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5638,7 +5788,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -5658,22 +5808,22 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -5683,22 +5833,22 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -5708,7 +5858,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -5763,39 +5913,44 @@
       </c>
       <c r="AH31" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>560</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5805,7 +5960,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -5830,12 +5985,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -5845,7 +6000,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -5855,17 +6010,17 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
@@ -5880,7 +6035,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -5935,29 +6090,34 @@
       </c>
       <c r="AH32" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -5977,12 +6137,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -6002,7 +6162,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -6017,7 +6177,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6027,17 +6187,17 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -6052,7 +6212,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -6107,29 +6267,34 @@
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
+        <is>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6149,12 +6314,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -6179,17 +6344,17 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -6224,7 +6389,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -6279,44 +6444,49 @@
       </c>
       <c r="AH34" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI34" t="inlineStr">
+        <is>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -6326,7 +6496,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6351,17 +6521,17 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -6376,27 +6546,27 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -6451,29 +6621,34 @@
       </c>
       <c r="AH35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6483,7 +6658,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -6493,12 +6668,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -6518,7 +6693,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -6533,7 +6708,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -6543,7 +6718,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -6568,7 +6743,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -6622,6 +6797,11 @@
         </is>
       </c>
       <c r="AH36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
         <is>
           <t>1680</t>
         </is>
@@ -6630,17 +6810,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6650,12 +6830,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -6670,7 +6850,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -6690,17 +6870,17 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -6715,32 +6895,32 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -6795,29 +6975,34 @@
       </c>
       <c r="AH37" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI37" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -6832,17 +7017,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -6862,7 +7047,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6872,12 +7057,12 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -6887,7 +7072,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -6912,7 +7097,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -6967,29 +7152,34 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI38" t="inlineStr">
+        <is>
+          <t>1540</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7004,17 +7194,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -7039,17 +7229,17 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -7059,7 +7249,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -7084,7 +7274,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
@@ -7139,29 +7329,34 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
+        <is>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -7181,12 +7376,12 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -7206,12 +7401,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -7221,7 +7416,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -7231,27 +7426,27 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -7311,54 +7506,59 @@
       </c>
       <c r="AH40" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI40" t="inlineStr">
+        <is>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -7383,17 +7583,17 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -7408,27 +7608,27 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -7483,29 +7683,34 @@
       </c>
       <c r="AH41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -7530,7 +7735,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -7550,7 +7755,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -7565,7 +7770,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -7575,7 +7780,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -7600,7 +7805,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -7654,6 +7859,11 @@
         </is>
       </c>
       <c r="AH42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
         <is>
           <t>1820</t>
         </is>
@@ -7662,22 +7872,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -7697,12 +7907,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -7722,7 +7932,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -7747,7 +7957,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -7772,7 +7982,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X43" t="inlineStr">
@@ -7827,29 +8037,34 @@
       </c>
       <c r="AH43" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>1540</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -7874,7 +8089,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -7894,17 +8109,17 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -7924,27 +8139,27 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X44" t="inlineStr">
@@ -7999,44 +8214,49 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -8046,7 +8266,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -8066,7 +8286,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -8076,7 +8296,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -8096,27 +8316,27 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X45" t="inlineStr">
@@ -8171,39 +8391,44 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>楊于箴</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Sandy Yang</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -8213,7 +8438,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -8238,7 +8463,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -8248,7 +8473,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -8263,27 +8488,27 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -8343,24 +8568,29 @@
       </c>
       <c r="AH46" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8370,27 +8600,27 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -8415,7 +8645,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -8440,12 +8670,12 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -8460,7 +8690,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X47" t="inlineStr">
@@ -8515,24 +8745,29 @@
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>1540</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8542,7 +8777,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -8562,7 +8797,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -8587,12 +8822,12 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -8612,12 +8847,12 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -8632,7 +8867,7 @@
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X48" t="inlineStr">
@@ -8687,24 +8922,29 @@
       </c>
       <c r="AH48" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>980</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>蕭順仁</t>
+          <t>李沐潔</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Allen Hsiao</t>
+          <t>Kayla Lee</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8724,7 +8964,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8764,7 +9004,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
@@ -8784,12 +9024,12 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
@@ -8799,12 +9039,12 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -8814,7 +9054,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -8824,7 +9064,7 @@
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AB49" t="inlineStr">
@@ -8859,24 +9099,29 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>戴新華</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Dixie Tai</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8891,7 +9136,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -8931,12 +9176,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -8961,7 +9206,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -9031,39 +9276,44 @@
       </c>
       <c r="AH50" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -9073,7 +9323,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -9098,17 +9348,17 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -9123,7 +9373,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -9133,7 +9383,7 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -9143,7 +9393,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
@@ -9203,39 +9453,44 @@
       </c>
       <c r="AH51" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>鍾幸玲</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Shelly Chung</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA7</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -9245,7 +9500,7 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -9270,12 +9525,12 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -9295,27 +9550,27 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -9355,7 +9610,7 @@
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
@@ -9375,39 +9630,44 @@
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>潘梅寧</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Amy Pan</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA7</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -9417,7 +9677,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -9442,17 +9702,17 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -9467,22 +9727,22 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -9547,34 +9807,39 @@
       </c>
       <c r="AH53" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -9584,17 +9849,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -9639,12 +9904,12 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
@@ -9654,12 +9919,12 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -9699,7 +9964,7 @@
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
@@ -9719,24 +9984,29 @@
       </c>
       <c r="AH54" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI54" t="inlineStr">
+        <is>
+          <t>560</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>蕭順仁</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Allen Hsiao</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9746,12 +10016,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -9761,7 +10031,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -9801,7 +10071,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -9821,12 +10091,12 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -9836,12 +10106,12 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -9851,7 +10121,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -9861,7 +10131,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -9891,49 +10161,54 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI55" t="inlineStr">
+        <is>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>魏宏霖</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Henry Wei</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -9958,12 +10233,12 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -9983,17 +10258,17 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -10003,7 +10278,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -10063,49 +10338,54 @@
       </c>
       <c r="AH56" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI56" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -10130,12 +10410,12 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -10155,17 +10435,17 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
@@ -10175,7 +10455,7 @@
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -10235,39 +10515,44 @@
       </c>
       <c r="AH57" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI57" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>賴韋任</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Leo Lai</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA82</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -10277,7 +10562,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -10302,17 +10587,17 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -10327,27 +10612,27 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W58" t="inlineStr">
@@ -10367,7 +10652,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -10407,39 +10692,44 @@
       </c>
       <c r="AH58" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI58" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10449,7 +10739,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -10474,17 +10764,17 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -10579,39 +10869,44 @@
       </c>
       <c r="AH59" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10621,7 +10916,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -10646,17 +10941,17 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -10671,32 +10966,32 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -10751,29 +11046,34 @@
       </c>
       <c r="AH60" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI60" t="inlineStr">
+        <is>
+          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10798,7 +11098,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -10818,12 +11118,12 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -10833,7 +11133,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -10843,7 +11143,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -10868,7 +11168,7 @@
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -10923,24 +11223,29 @@
       </c>
       <c r="AH61" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10955,7 +11260,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>440</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -10970,7 +11275,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -10990,12 +11295,12 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11005,7 +11310,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -11015,7 +11320,7 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -11040,7 +11345,7 @@
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -11095,39 +11400,44 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI62" t="inlineStr">
+        <is>
+          <t>1980</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>李侑萱</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Yolanda Lee</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11137,7 +11447,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -11162,17 +11472,17 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
@@ -11187,37 +11497,37 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -11267,39 +11577,44 @@
       </c>
       <c r="AH63" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI63" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>葉雲旭</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Johnny Yeh</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11309,7 +11624,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -11334,17 +11649,17 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
@@ -11359,27 +11674,27 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
@@ -11439,49 +11754,54 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI64" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>凃美君</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Chun Tu</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -11506,17 +11826,17 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -11531,27 +11851,27 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
@@ -11611,49 +11931,54 @@
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI65" t="inlineStr">
+        <is>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>川中郁果</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Kawanaka Ikuka</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -11678,7 +12003,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -11703,27 +12028,27 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
@@ -11733,7 +12058,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -11783,29 +12108,34 @@
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI66" t="inlineStr">
+        <is>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -11820,7 +12150,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -11830,7 +12160,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -11850,7 +12180,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -11865,7 +12195,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -11880,7 +12210,7 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -11900,7 +12230,7 @@
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
@@ -11955,34 +12285,39 @@
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI67" t="inlineStr">
+        <is>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -12032,12 +12367,12 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -12047,7 +12382,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -12072,7 +12407,7 @@
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -12127,34 +12462,39 @@
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI68" t="inlineStr">
+        <is>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -12164,7 +12504,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -12174,7 +12514,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -12194,7 +12534,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -12209,7 +12549,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -12219,7 +12559,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -12244,17 +12584,17 @@
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -12299,29 +12639,34 @@
       </c>
       <c r="AH69" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI69" t="inlineStr">
+        <is>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -12336,7 +12681,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -12346,7 +12691,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -12376,12 +12721,12 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -12391,7 +12736,7 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
@@ -12416,7 +12761,7 @@
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
@@ -12471,179 +12816,1777 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI70" t="inlineStr">
+        <is>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>李品于</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Spring Lee</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2AA8A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI71" t="inlineStr">
+        <is>
+          <t>1820</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>陳璜琪</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Vincent Chen</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2AA8C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI72" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>謝昔祥</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Adonis Hsieh</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2AA8C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>江德蓉</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Leila Jiang</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2AA8C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>謝勝旭</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Benjamin Hsieh</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2AA8D</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI75" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>蔡明彬</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Jeff Tsai</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI76" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>胡美燕</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>May Hu</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>張雅惠</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sofeya Chang</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>林華宸</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Wayne Lin</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>6,860</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>7,300</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>7,280</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>7,000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7,720</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>7,700</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
         <is>
           <t>3,220</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>6,580</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>6,300</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>7,000</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>6,720</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>7,860</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
         <is>
           <t>7,580</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>7,300</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>1,140</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>1,000</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>6,040</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>6,320</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>6,880</t>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t>6,460</t>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>7,080</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr">
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>7,740</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>8,300</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>7,880</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>8,780</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
         <is>
           <t>420</t>
         </is>
       </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Y71" t="inlineStr">
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA71" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG71" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH71" t="inlineStr">
-        <is>
-          <t>88,320</t>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>97,220</t>
         </is>
       </c>
     </row>

--- a/excel/202310.xlsx
+++ b/excel/202310.xlsx
@@ -897,7 +897,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>420</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -3440,7 +3440,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
@@ -4352,27 +4352,27 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -4427,17 +4427,17 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -4502,7 +4502,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -5387,7 +5387,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>4980</t>
+          <t>5980</t>
         </is>
       </c>
     </row>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -5459,52 +5459,52 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>6320</t>
         </is>
       </c>
     </row>
@@ -6102,12 +6102,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6192,12 +6192,12 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
@@ -6272,19 +6272,19 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -6369,12 +6369,12 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -6449,19 +6449,19 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6521,17 +6521,17 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -6626,19 +6626,19 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -6803,19 +6803,19 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1540</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6875,17 +6875,17 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6900,7 +6900,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -6980,19 +6980,19 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -7077,27 +7077,27 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -7157,19 +7157,19 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7341,12 +7341,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -7431,27 +7431,27 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -7511,7 +7511,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -8042,7 +8042,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
@@ -8226,12 +8226,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -8291,7 +8291,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -8396,19 +8396,19 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>楊于箴</t>
+          <t>李沐潔</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sandy Yang</t>
+          <t>Kayla Lee</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -8423,17 +8423,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -8473,12 +8473,12 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -8493,27 +8493,27 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -8573,19 +8573,19 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -8750,19 +8750,19 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>楊于箴</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Sandy Yang</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8777,12 +8777,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -8822,17 +8822,17 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -8927,19 +8927,19 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>980</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -8959,12 +8959,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -8999,17 +8999,17 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -9024,32 +9024,32 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
@@ -9465,12 +9465,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>鍾幸玲</t>
+          <t>潘梅寧</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Shelly Chung</t>
+          <t>Amy Pan</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -9610,7 +9610,7 @@
       </c>
       <c r="AD52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE52" t="inlineStr">
@@ -9642,12 +9642,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>潘梅寧</t>
+          <t>鍾幸玲</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Amy Pan</t>
+          <t>Shelly Chung</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9747,7 +9747,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr">
@@ -9819,12 +9819,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>蕭順仁</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Allen Hsiao</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -9854,12 +9854,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -9919,7 +9919,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -9929,12 +9929,12 @@
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -9944,7 +9944,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="AD54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE54" t="inlineStr">
@@ -9989,19 +9989,19 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>蕭順仁</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Allen Hsiao</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10031,12 +10031,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -10106,12 +10106,12 @@
       </c>
       <c r="W55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -10121,7 +10121,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -10141,7 +10141,7 @@
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
@@ -10166,7 +10166,7 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>560</t>
         </is>
       </c>
     </row>
@@ -13207,22 +13207,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -13252,12 +13252,12 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -13272,27 +13272,27 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
@@ -13352,7 +13352,7 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
@@ -13394,7 +13394,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -13529,7 +13529,7 @@
       </c>
       <c r="AI74" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
@@ -14436,29 +14436,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>7,140</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7,720</t>
+          <t>8,280</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
+          <t>8,260</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>3,920</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
           <t>7,700</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>3,220</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>7,000</t>
-        </is>
-      </c>
       <c r="J80" t="inlineStr">
         <is>
           <t>0</t>
@@ -14481,57 +14481,57 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>6,720</t>
+          <t>7,280</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>7,860</t>
+          <t>9,420</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>7,580</t>
+          <t>9,560</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>1,140</t>
+          <t>2,140</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>6,320</t>
+          <t>9,080</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>7,740</t>
+          <t>8,580</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>8,300</t>
+          <t>9,140</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>7,880</t>
+          <t>8,860</t>
         </is>
       </c>
       <c r="W80" t="inlineStr">
         <is>
-          <t>8,780</t>
+          <t>9,480</t>
         </is>
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>700</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -14586,7 +14586,7 @@
       </c>
       <c r="AI80" t="inlineStr">
         <is>
-          <t>97,220</t>
+          <t>112,380</t>
         </is>
       </c>
     </row>
